--- a/pred_ohlcv/54_21/2020-01-15 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 APIS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>7411387.518600002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5415848.008800002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7179537.993500002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6882533.230300002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4692303.631200002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7262879.784700002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1861287.973600002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1659991.727700002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5278476.690400001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12712264.3903</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>10830556.708</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>10831911.9721</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9701676.260599999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9702512.757299999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7886069.338499999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6192096.229399999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4890483.877999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6908542.020799998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6820261.548699998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>8596141.828499999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>11478651.4533</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>9542275.487599999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>8146758.729099998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6653524.897299998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>8208753.960799998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>8200660.021999998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>11230843.732</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11231666.1788</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11231666.1788</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9642934.086599996</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9627193.687799996</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7999522.546999996</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8000418.320999996</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5128102.041799996</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3909177.649399996</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>931403.746899996</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2663232.656799996</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>371598.6278999962</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2624827.745400004</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4764910.941300005</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4845701.940700006</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3648748.403000006</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4345333.410000006</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-6738795.187400006</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6608174.836700005</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-6608174.836700005</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-15643575.51890001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-19813104.40510001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-17707345.67110001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-17706537.67110001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20641525.45260001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-18739820.10852012</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-27599247.95622012</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-24765755.57092012</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-26259784.15942012</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-26413199.45222012</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-25356083.22842012</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-25676598.44912012</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-28016010.16002012</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-25422773.49422012</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-25421943.06062012</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-28155308.20212012</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-28154467.98032012</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-34315662.17222012</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-30418022.23382011</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-31252583.39472011</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-18990221.70742011</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-22259620.31272012</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-22258805.15642012</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 APIS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>7411387.518600002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5415848.008800002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8174928.806300001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6882533.230300002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4692303.631200002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7262879.784700002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1861287.973600002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1659991.727700002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3637865.525700002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6486835.257300002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>7829814.107800001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5278476.690400001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>7298190.9482</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>9781024.5557</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7173269.3585</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9062454.740499999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9736264.642299999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12712264.3903</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>10831911.9721</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9701676.260599999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9702512.757299999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7886069.338499999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6192096.229399999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4890483.877999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6908542.020799998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6820261.548699998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>8596141.828499999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>11478651.4533</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>9542275.487599999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>8146758.729099998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>8147578.699099998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6653524.897299998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>8208753.960799998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>8200660.021999998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10603638.3502</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>12208136.5441</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>11230843.732</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11231666.1788</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11231666.1788</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9642934.086599996</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7999522.546999996</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8000418.320999996</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5128102.041799996</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5128937.313999996</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>371598.6278999962</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2624827.745400004</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4845701.940700006</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3648748.403000006</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4345333.410000006</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-6738795.187400006</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6608174.836700005</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-6608174.836700005</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-15643575.51890001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-19813104.40510001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-17707345.67110001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-17706537.67110001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20641525.45260001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-24765755.57092012</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-26259784.15942012</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-25356083.22842012</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-25676598.44912012</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-28016010.16002012</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-25422773.49422012</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-25421943.06062012</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-28155308.20212012</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-28154467.98032012</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-34315662.17222012</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-30418022.23382011</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-31252583.39472011</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-34067835.81932012</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-32989044.20112012</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-35256509.24572012</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-32362339.77722012</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-18990221.70742011</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-22259620.31272012</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-22258805.15642012</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
